--- a/The Data Science Course 2021 - All Resources/Part_3_Statistics/S15_L76/2.4.Numerical-variables.Frequency-distribution-table-exercise.xlsx
+++ b/The Data Science Course 2021 - All Resources/Part_3_Statistics/S15_L76/2.4.Numerical-variables.Frequency-distribution-table-exercise.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iliya\Desktop\Statistics Course\Filming\Final excel\Section 2 - Descriptive statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giovanni.cintra\Documents\repository\The Data Science Course 2021 - All Resources\Part_3_Statistics\S15_L76\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F528D2D-AF3F-4C61-B9D5-664018E42A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequency distribution table" sheetId="10" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Numerical variables. Frequency distribution table</t>
   </si>
@@ -64,12 +76,33 @@
   </si>
   <si>
     <t>Given that we want to divide the numbers into 6 intervals of equal width, calculate that interval width. Round up to the nearest whole number, bigger than the result that you obtain</t>
+  </si>
+  <si>
+    <t>Number intervals</t>
+  </si>
+  <si>
+    <t>Interval Width</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Relative Frequency</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -173,36 +206,29 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -518,36 +544,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="I22" sqref="I17:I22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="8.88671875" style="3"/>
-    <col min="20" max="20" width="10.44140625" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="3"/>
+    <col min="11" max="11" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="8.85546875" style="3"/>
+    <col min="20" max="20" width="10.42578125" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -555,7 +583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -563,7 +591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -586,7 +614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -601,7 +629,7 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="2:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
@@ -611,15 +639,28 @@
       <c r="B13" s="3">
         <v>8</v>
       </c>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5">
+        <v>6</v>
+      </c>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>30</v>
       </c>
+      <c r="F14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="5">
+        <f>ROUNDUP((B32-B13)/G13,0)</f>
+        <v>46</v>
+      </c>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="2:17" ht="12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>30</v>
       </c>
@@ -630,499 +671,297 @@
       <c r="B16" s="3">
         <v>50</v>
       </c>
+      <c r="F16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="2:17" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>86</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="F17" s="5">
+        <f>B13</f>
+        <v>8</v>
+      </c>
+      <c r="G17" s="5">
+        <f>F17+G14</f>
+        <v>54</v>
+      </c>
+      <c r="H17" s="5">
+        <f>COUNTIFS($B$13:$B$32,"&gt;="&amp;F17,$B$13:$B$32,"&lt;="&amp;G17)</f>
+        <v>4</v>
+      </c>
+      <c r="I17" s="9">
+        <f>H17/$H$23</f>
+        <v>0.2</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>94</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="D18" s="5"/>
+      <c r="F18" s="5">
+        <f>G17+1</f>
+        <v>55</v>
+      </c>
+      <c r="G18" s="5">
+        <f>F18+$G$14</f>
+        <v>101</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" ref="H18:H22" si="0">COUNTIFS($B$13:$B$32,"&gt;="&amp;F18,$B$13:$B$32,"&lt;="&amp;G18)</f>
+        <v>2</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" ref="I18:I22" si="1">H18/$H$23</f>
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="2:17" ht="12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>102</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="2:17" ht="12" x14ac:dyDescent="0.2">
+      <c r="E19" s="10"/>
+      <c r="F19" s="5">
+        <f>G18+1</f>
+        <v>102</v>
+      </c>
+      <c r="G19" s="5">
+        <f>F19+$G$14</f>
+        <v>148</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>110</v>
       </c>
-      <c r="C20" s="9"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E20" s="10"/>
+      <c r="F20" s="5">
+        <f>G19+1</f>
+        <v>149</v>
+      </c>
+      <c r="G20" s="5">
+        <f>F20+$G$14</f>
+        <v>195</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>169</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-    </row>
-    <row r="22" spans="2:17" ht="12" x14ac:dyDescent="0.2">
+      <c r="D21" s="5"/>
+      <c r="F21" s="5">
+        <f>G20+1</f>
+        <v>196</v>
+      </c>
+      <c r="G21" s="5">
+        <f>F21+$G$14</f>
+        <v>242</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>170</v>
       </c>
-      <c r="C22" s="9"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="7"/>
+      <c r="F22" s="5">
+        <f>G21+1</f>
+        <v>243</v>
+      </c>
+      <c r="G22" s="5">
+        <f>F22+$G$14</f>
+        <v>289</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>176</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="5">
+        <f>SUM(H17:H22)</f>
+        <v>20</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>236</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>240</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>241</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>242</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>255</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="14"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>262</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>276</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>279</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>282</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-    </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D38" s="9"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-    </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D39" s="9"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-    </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D40" s="9"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-    </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D41" s="9"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-    </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D42" s="9"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-    </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D43" s="9"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-    </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D44" s="9"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-    </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D45" s="9"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-    </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D46" s="9"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="15"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="15"/>
     </row>
   </sheetData>
-  <sortState ref="B13:B32">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B13:B32">
     <sortCondition ref="B13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
